--- a/documents/templates/bulk-upload/08-BulkUploadMachineCell.xlsx
+++ b/documents/templates/bulk-upload/08-BulkUploadMachineCell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2C8DBB-0FFA-1240-BE5A-1A4DD03D1232}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6A123B-CA34-AD4B-A951-EF73170002DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{9DC2F228-EA14-E04E-B086-6389CC91253B}"/>
   </bookViews>
@@ -31,9 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Cell One</t>
+  </si>
+  <si>
+    <t>Cell Two</t>
+  </si>
+  <si>
+    <t>Cell Three</t>
+  </si>
+  <si>
+    <t>Cell Four</t>
+  </si>
+  <si>
+    <t>Cell Five</t>
   </si>
 </sst>
 </file>
@@ -385,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B3AA3-A39D-D140-A97D-CB65C9C6C05F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -398,6 +413,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/templates/bulk-upload/08-BulkUploadMachineCell.xlsx
+++ b/documents/templates/bulk-upload/08-BulkUploadMachineCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6A123B-CA34-AD4B-A951-EF73170002DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC855759-C833-6044-9BA6-EA9B753B1BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{9DC2F228-EA14-E04E-B086-6389CC91253B}"/>
   </bookViews>
@@ -36,29 +36,35 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Cell One</t>
-  </si>
-  <si>
-    <t>Cell Two</t>
-  </si>
-  <si>
-    <t>Cell Three</t>
-  </si>
-  <si>
-    <t>Cell Four</t>
-  </si>
-  <si>
-    <t>Cell Five</t>
+    <t>Cell-01</t>
+  </si>
+  <si>
+    <t>Cell-02</t>
+  </si>
+  <si>
+    <t>Cell-03</t>
+  </si>
+  <si>
+    <t>Cell-04</t>
+  </si>
+  <si>
+    <t>Cell-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +409,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,6 +445,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>